--- a/ScorpioConversion/Sample/Excel/Test.xlsx
+++ b/ScorpioConversion/Sample/Excel/Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ScorpioConversion\Sample\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ScorpioConversion\ScorpioConversion\Sample\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>/Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,22 @@
   <si>
     <t>[[[100;100]];100];
 [[[200;200]];201]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testConst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestConst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValueNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValueString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,13 +601,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -599,14 +615,15 @@
     <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -614,7 +631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -622,7 +639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,8 +661,11 @@
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -667,8 +687,11 @@
       <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -680,7 +703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,8 +722,11 @@
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -718,6 +744,9 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ScorpioConversion/Sample/Excel/Test.xlsx
+++ b/ScorpioConversion/Sample/Excel/Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>/Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,22 +235,6 @@
   <si>
     <t>[[[100;100]];100];
 [[[200;200]];201]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testConst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestConst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ValueNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ValueString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,13 +585,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -619,11 +603,10 @@
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -631,7 +614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -639,7 +622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,11 +644,8 @@
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -687,11 +667,8 @@
       <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -703,7 +680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -722,11 +699,8 @@
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -744,9 +718,6 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ScorpioConversion/Sample/Excel/Test.xlsx
+++ b/ScorpioConversion/Sample/Excel/Test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ScorpioConversion\ScorpioConversion\Sample\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12435"/>
+    <workbookView windowWidth="23325" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>/Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+  <si>
+    <t>/Package</t>
   </si>
   <si>
     <r>
-      <t>/</t>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>P</t>
     </r>
     <r>
       <rPr>
@@ -34,17 +33,26 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>Type</t>
+      <t>ackageName</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Begin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Comment</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>/Name</t>
   </si>
   <si>
     <r>
-      <t>/</t>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -52,76 +60,11 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>End</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>estID</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrayint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;200;300;400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010/10/20 10:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000001</t>
-  </si>
-  <si>
-    <t>100;200;300;401</t>
-  </si>
-  <si>
-    <t>2010/10/20 10:21</t>
-  </si>
-  <si>
-    <t>1000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!TestArrayString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrayInt3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testEnum</t>
   </si>
   <si>
     <r>
@@ -136,144 +79,534 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Date</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testEnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestEnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!TestArrayString</t>
   </si>
   <si>
     <t>TestDateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Default</t>
   </si>
   <si>
     <t>TestInt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>i</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestEnum</t>
+  </si>
+  <si>
+    <t>arrayInt3</t>
+  </si>
+  <si>
+    <t>arrayint</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>/Default</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>9</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>99</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Package</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Begin</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>[[[100;100]];100];
+[[[200;200]];201]</t>
+  </si>
+  <si>
+    <t>100;200;300;400</t>
+  </si>
+  <si>
+    <t>2010/10/20 10:20</t>
   </si>
   <si>
     <r>
-      <t>P</t>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ackageName</t>
+      <t>End</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[[100;100]];100];
-[[[200;200]];201]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[[100;100]];100];
-[[[200;200]];201]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000001</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t>100;200;300;401</t>
+  </si>
+  <si>
+    <t>2010/10/20 10:21</t>
+  </si>
+  <si>
+    <t>/BeginBranch</t>
+  </si>
+  <si>
+    <t>branch1</t>
+  </si>
+  <si>
+    <t>/EndBranch</t>
+  </si>
+  <si>
+    <t>1000002</t>
+  </si>
+  <si>
+    <t>2999/1/1 0:0</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>branch2</t>
+  </si>
+  <si>
+    <t>1000003</t>
+  </si>
+  <si>
+    <t>777</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -281,43 +614,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -575,26 +1191,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+    <pageSetUpPr fitToPage="1" autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.125" style="1" customWidth="1"/>
@@ -606,124 +1222,177 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/ScorpioConversion/Sample/Excel/Test.xlsx
+++ b/ScorpioConversion/Sample/Excel/Test.xlsx
@@ -14,33 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
-  <si>
-    <t>/Package</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ackageName</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>/Comment</t>
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>加叹号表示字段无效</t>
+  </si>
+  <si>
+    <t>内容为1234567890的base64数据</t>
   </si>
   <si>
     <t>/Name</t>
@@ -94,6 +79,9 @@
     <t>TestInt</t>
   </si>
   <si>
+    <t>TestBytes</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -142,6 +130,9 @@
     <t>datetime</t>
   </si>
   <si>
+    <t>bytes</t>
+  </si>
+  <si>
     <t>/Default</t>
   </si>
   <si>
@@ -163,6 +154,9 @@
     </r>
   </si>
   <si>
+    <t>base64://MTIzNDU2Nzg5MA==</t>
+  </si>
+  <si>
     <t>/Begin</t>
   </si>
   <si>
@@ -244,21 +238,37 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -271,17 +281,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -289,53 +323,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,14 +347,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -373,6 +363,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -384,14 +381,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,43 +410,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,139 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,6 +628,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -659,15 +657,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,165 +706,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1198,196 +1184,205 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1" autoPageBreaks="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="34" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
+    <row r="5" ht="28.5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
+      <c r="A6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="11" customHeight="1"/>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="1" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>38</v>
+      <c r="G15" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ScorpioConversion/Sample/Excel/Test.xlsx
+++ b/ScorpioConversion/Sample/Excel/Test.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ScorpioConversion\ScorpioConversion\Sample\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23325" windowHeight="9225"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Test1" sheetId="2" r:id="rId2"/>
+    <sheet name="Test2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
   <si>
     <t>/Comment</t>
   </si>
@@ -232,370 +239,185 @@
   <si>
     <t>777</t>
   </si>
+  <si>
+    <t>/Spawn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn</t>
+  </si>
+  <si>
+    <t>/Comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试ID 此值必须唯一 而且必须为int型</t>
+  </si>
+  <si>
+    <t>int类型</t>
+  </si>
+  <si>
+    <t>string类型</t>
+  </si>
+  <si>
+    <t>测试多国语言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool类型</t>
+  </si>
+  <si>
+    <t>自定义类型 根据ExcelConfig下 table.sco文件定义的Int2解析 类型为table_后面的名字 格式为 , 隔开</t>
+  </si>
+  <si>
+    <t>自定义枚举</t>
+  </si>
+  <si>
+    <t>/Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TestString</t>
+  </si>
+  <si>
+    <t>TestLanguage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestBool</t>
+  </si>
+  <si>
+    <t>TestInt2</t>
+  </si>
+  <si>
+    <t>TestEnumName</t>
+  </si>
+  <si>
+    <t>/Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Int2</t>
+  </si>
+  <si>
+    <t>/Begin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>fawefawef</t>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>100,100</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>/End</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pawn</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbbbbbb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Spawn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试多国语言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestLanguage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -603,255 +425,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,62 +444,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1177,11 +716,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1190,26 +730,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1249,7 +787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1275,7 +813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1290,7 +828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:6">
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1310,7 +848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:6">
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1330,8 +868,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="11" customHeight="1"/>
-    <row r="10" spans="1:2">
+    <row r="9" spans="1:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1339,7 +877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1358,7 +896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1366,7 +904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1386,8 +924,305 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="TestEnum" prompt="Test1 = 1_x000a_Test2 = 2_x000a_Test3 = 3_x000a_" sqref="H5:H20 JD5:JD20 SZ5:SZ20 ACV5:ACV20 AMR5:AMR20 AWN5:AWN20 BGJ5:BGJ20 BQF5:BQF20 CAB5:CAB20 CJX5:CJX20 CTT5:CTT20 DDP5:DDP20 DNL5:DNL20 DXH5:DXH20 EHD5:EHD20 EQZ5:EQZ20 FAV5:FAV20 FKR5:FKR20 FUN5:FUN20 GEJ5:GEJ20 GOF5:GOF20 GYB5:GYB20 HHX5:HHX20 HRT5:HRT20 IBP5:IBP20 ILL5:ILL20 IVH5:IVH20 JFD5:JFD20 JOZ5:JOZ20 JYV5:JYV20 KIR5:KIR20 KSN5:KSN20 LCJ5:LCJ20 LMF5:LMF20 LWB5:LWB20 MFX5:MFX20 MPT5:MPT20 MZP5:MZP20 NJL5:NJL20 NTH5:NTH20 ODD5:ODD20 OMZ5:OMZ20 OWV5:OWV20 PGR5:PGR20 PQN5:PQN20 QAJ5:QAJ20 QKF5:QKF20 QUB5:QUB20 RDX5:RDX20 RNT5:RNT20 RXP5:RXP20 SHL5:SHL20 SRH5:SRH20 TBD5:TBD20 TKZ5:TKZ20 TUV5:TUV20 UER5:UER20 UON5:UON20 UYJ5:UYJ20 VIF5:VIF20 VSB5:VSB20 WBX5:WBX20 WLT5:WLT20 WVP5:WVP20">
+      <formula1>"Test1,Test2,Test3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="TestEnum" prompt="Test1 = 1_x000a_Test2 = 2_x000a_Test3 = 3_x000a_" sqref="H5:H19">
+      <formula1>"Test1,Test2,Test3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ScorpioConversion/Sample/Excel/Test.xlsx
+++ b/ScorpioConversion/Sample/Excel/Test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>/Comment</t>
   </si>
@@ -732,7 +732,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -818,9 +818,14 @@
         <v>19</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>20</v>
       </c>

--- a/ScorpioConversion/Sample/Excel/Test.xlsx
+++ b/ScorpioConversion/Sample/Excel/Test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ScorpioConversion\ScorpioConversion\Sample\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23325" windowHeight="9225"/>
+    <workbookView windowWidth="28125" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
   <si>
     <t>/Comment</t>
   </si>
@@ -89,6 +84,9 @@
     <t>TestBytes</t>
   </si>
   <si>
+    <t>$TestLanguage</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -140,7 +138,16 @@
     <t>bytes</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>/Default</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>2010/10/20 10:20</t>
   </si>
   <si>
     <r>
@@ -170,17 +177,11 @@
     <t>1000000</t>
   </si>
   <si>
-    <t>value1</t>
-  </si>
-  <si>
     <t>[[[100;100]];100];
 [[[200;200]];201]</t>
   </si>
   <si>
     <t>100;200;300;400</t>
-  </si>
-  <si>
-    <t>2010/10/20 10:20</t>
   </si>
   <si>
     <r>
@@ -241,16 +242,11 @@
   </si>
   <si>
     <t>/Spawn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Spawn</t>
   </si>
   <si>
-    <t>/Comment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>测试ID 此值必须唯一 而且必须为int型</t>
   </si>
   <si>
@@ -261,7 +257,6 @@
   </si>
   <si>
     <t>测试多国语言</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bool类型</t>
@@ -273,10 +268,6 @@
     <t>自定义枚举</t>
   </si>
   <si>
-    <t>/Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -284,7 +275,6 @@
   </si>
   <si>
     <t>TestLanguage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TestBool</t>
@@ -297,29 +287,17 @@
   </si>
   <si>
     <t>/Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
     <t>Int2</t>
   </si>
   <si>
-    <t>/Begin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
@@ -330,7 +308,6 @@
   </si>
   <si>
     <t>aaa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
@@ -343,10 +320,14 @@
   </si>
   <si>
     <t>/End</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>S</t>
     </r>
     <r>
@@ -357,67 +338,374 @@
       </rPr>
       <t>pawn</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Comment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bbbbbbb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Spawn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试多国语言</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestLanguage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -425,9 +713,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -435,6 +965,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -444,21 +977,62 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -716,283 +1290,290 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" ht="28.5" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="9" ht="11.1" customHeight="1"/>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>41</v>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="103.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="103.75" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -1016,7 +1597,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1027,120 +1608,121 @@
         <v>60</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>68</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>69</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>73</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="TestEnum" prompt="Test1 = 1_x000a_Test2 = 2_x000a_Test3 = 3_x000a_" sqref="H5:H20 JD5:JD20 SZ5:SZ20 ACV5:ACV20 AMR5:AMR20 AWN5:AWN20 BGJ5:BGJ20 BQF5:BQF20 CAB5:CAB20 CJX5:CJX20 CTT5:CTT20 DDP5:DDP20 DNL5:DNL20 DXH5:DXH20 EHD5:EHD20 EQZ5:EQZ20 FAV5:FAV20 FKR5:FKR20 FUN5:FUN20 GEJ5:GEJ20 GOF5:GOF20 GYB5:GYB20 HHX5:HHX20 HRT5:HRT20 IBP5:IBP20 ILL5:ILL20 IVH5:IVH20 JFD5:JFD20 JOZ5:JOZ20 JYV5:JYV20 KIR5:KIR20 KSN5:KSN20 LCJ5:LCJ20 LMF5:LMF20 LWB5:LWB20 MFX5:MFX20 MPT5:MPT20 MZP5:MZP20 NJL5:NJL20 NTH5:NTH20 ODD5:ODD20 OMZ5:OMZ20 OWV5:OWV20 PGR5:PGR20 PQN5:PQN20 QAJ5:QAJ20 QKF5:QKF20 QUB5:QUB20 RDX5:RDX20 RNT5:RNT20 RXP5:RXP20 SHL5:SHL20 SRH5:SRH20 TBD5:TBD20 TKZ5:TKZ20 TUV5:TUV20 UER5:UER20 UON5:UON20 UYJ5:UYJ20 VIF5:VIF20 VSB5:VSB20 WBX5:WBX20 WLT5:WLT20 WVP5:WVP20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="TestEnum" prompt="Test1 = 1&#10;Test2 = 2&#10;Test3 = 3&#10;" sqref="H5:H20 JD5:JD20 SZ5:SZ20 ACV5:ACV20 AMR5:AMR20 AWN5:AWN20 BGJ5:BGJ20 BQF5:BQF20 CAB5:CAB20 CJX5:CJX20 CTT5:CTT20 DDP5:DDP20 DNL5:DNL20 DXH5:DXH20 EHD5:EHD20 EQZ5:EQZ20 FAV5:FAV20 FKR5:FKR20 FUN5:FUN20 GEJ5:GEJ20 GOF5:GOF20 GYB5:GYB20 HHX5:HHX20 HRT5:HRT20 IBP5:IBP20 ILL5:ILL20 IVH5:IVH20 JFD5:JFD20 JOZ5:JOZ20 JYV5:JYV20 KIR5:KIR20 KSN5:KSN20 LCJ5:LCJ20 LMF5:LMF20 LWB5:LWB20 MFX5:MFX20 MPT5:MPT20 MZP5:MZP20 NJL5:NJL20 NTH5:NTH20 ODD5:ODD20 OMZ5:OMZ20 OWV5:OWV20 PGR5:PGR20 PQN5:PQN20 QAJ5:QAJ20 QKF5:QKF20 QUB5:QUB20 RDX5:RDX20 RNT5:RNT20 RXP5:RXP20 SHL5:SHL20 SRH5:SRH20 TBD5:TBD20 TKZ5:TKZ20 TUV5:TUV20 UER5:UER20 UON5:UON20 UYJ5:UYJ20 VIF5:VIF20 VSB5:VSB20 WBX5:WBX20 WLT5:WLT20 WVP5:WVP20">
       <formula1>"Test1,Test2,Test3"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="103.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="103.75" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -1152,7 +1734,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -1164,9 +1746,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -1175,59 +1757,59 @@
         <v>60</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>68</v>
       </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>73</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="TestEnum" prompt="Test1 = 1_x000a_Test2 = 2_x000a_Test3 = 3_x000a_" sqref="H5:H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="TestEnum" prompt="Test1 = 1&#10;Test2 = 2&#10;Test3 = 3&#10;" sqref="H5:H19">
       <formula1>"Test1,Test2,Test3"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>